--- a/data/GRNmap_input_workbooks/16-genes_27-edges_BK-KD-dZAP1-fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/16-genes_27-edges_BK-KD-dZAP1-fam_Sigmoid_estimation.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\GitClone_DahlquistLab_20160622b\DahlquistLab\data\GRNmap_input_workbooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="720" windowWidth="24885" windowHeight="14805" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="17160" windowHeight="13960" tabRatio="788" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="7" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="8" r:id="rId2"/>
     <sheet name="wt_log2_expression" sheetId="9" r:id="rId3"/>
-    <sheet name="dzap1_log2_expression" sheetId="10" r:id="rId4"/>
-    <sheet name="network" sheetId="2" r:id="rId5"/>
-    <sheet name="network_weights" sheetId="4" r:id="rId6"/>
-    <sheet name="optimization_parameters" sheetId="5" r:id="rId7"/>
-    <sheet name="threshold_b" sheetId="6" r:id="rId8"/>
+    <sheet name="dcin5_log2_expression" sheetId="11" r:id="rId4"/>
+    <sheet name="dgln3_log2_expression" sheetId="12" r:id="rId5"/>
+    <sheet name="dhap4_log2_expression" sheetId="13" r:id="rId6"/>
+    <sheet name="dhmo1_log2_expression" sheetId="14" r:id="rId7"/>
+    <sheet name="dzap1_log2_expression" sheetId="10" r:id="rId8"/>
+    <sheet name="network" sheetId="2" r:id="rId9"/>
+    <sheet name="network_weights" sheetId="4" r:id="rId10"/>
+    <sheet name="optimization_parameters" sheetId="5" r:id="rId11"/>
+    <sheet name="threshold_b" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="45">
   <si>
     <t>CIN5</t>
   </si>
@@ -155,12 +154,27 @@
   <si>
     <t>MCM1</t>
   </si>
+  <si>
+    <t>dcin5</t>
+  </si>
+  <si>
+    <t>dgln3</t>
+  </si>
+  <si>
+    <t>dhap4</t>
+  </si>
+  <si>
+    <t>dhmo1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,16 +215,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,8 +245,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="247">
+  <cellStyleXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,8 +509,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,8 +697,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="291" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="304" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="304" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="304" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="304" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="304" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="304" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="247">
+  <cellStyles count="425">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -602,6 +841,94 @@
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -725,9 +1052,180 @@
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="291"/>
+    <cellStyle name="Normal 3" xfId="304"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1065,17 +1563,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,84 +1581,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>-0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>-0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>-0.18479999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>-0.1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>-0.19259999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>-0.32240000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>-0.27179999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>-0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>-0.17119999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>-0.4078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>-0.2772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>-0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.1042</v>
       </c>
     </row>
   </sheetData>
@@ -1174,1352 +1720,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2">
-        <v>60</v>
-      </c>
-      <c r="M1" s="2">
-        <v>60</v>
-      </c>
-      <c r="N1" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2">
-        <v>60</v>
-      </c>
-      <c r="K1" s="2">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2">
-        <v>60</v>
-      </c>
-      <c r="M1" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +1786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -2678,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2784,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2837,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -3102,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -3155,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -3208,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -3261,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -3314,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3420,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3439,7 +2653,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3458,7 +2672,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3488,21 +2702,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3510,7 +2724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +2732,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3526,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3534,7 +2748,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3542,7 +2756,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3550,7 +2764,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +2772,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +2780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3574,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3582,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3590,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3598,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3606,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3620,18 +2834,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3673,6 +2899,3981 @@
       </c>
       <c r="N16" s="1">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.10050000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-9.6299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.16120000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.10829999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.2039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.1386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.14149999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-5.21E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-2.1071</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.89259999999999995</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.7297</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1.2332000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.43809999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1.9801</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.87129999999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1.3866000000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2.4279999999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.65590000000000004</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-3.0996999999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1.4733000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.6139</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.0689</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.39800000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5827</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-2.52E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-0.3947</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.62639999999999996</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.3377</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-0.43569999999999998</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-1.2497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.13730000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-9.9699999999999997E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2385999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3909</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.4224</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.0285</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.2338</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2159</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.1796000000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.4687000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4784999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.4504999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5857000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.968</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.8492</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.4618</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.4060999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.4693999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.2655000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.4323999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.9952000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.0855999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.1491</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.1163</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.3471</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1.4533</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-8.2100000000000006E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.083</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="I6" s="11">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="J6" s="11">
+        <v>-0.56620000000000004</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.248</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.5675</v>
+      </c>
+      <c r="N6" s="11">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.1242</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1.1405000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-0.32729999999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-0.29820000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-0.315</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-0.59989999999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-0.94469999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.3141</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1439</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.51329999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.70040000000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.2467</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.4085000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.9214</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.88590000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-2.6541999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.5184</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-2.5135000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1.1181000000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2225</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-1.0353000000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-0.2074</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1.8463000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.2392</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.8398000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.95250000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.405</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.3109</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.2568999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.9007000000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.4816</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.8391</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.2172000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.1268</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.863</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.5662</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1318</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.4508000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1.1557999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.8467</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.3797999999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2545</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-6.0499999999999998E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.96660000000000001</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-2.2875999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-2.0680000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2534000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.3891</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.90749999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-0.1774</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.87329999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.2347999999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.23330000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="10">
+        <v>-0.36580000000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-0.58630000000000004</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.9587</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.2197</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2.0937999999999999</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1.0625</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.1666</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.26960000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.2802</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-0.68079999999999996</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.3451</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-0.12709999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1.4033</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.6408</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2482</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1918</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.254</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.47970000000000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.482</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.2414999999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.8437999999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-0.92859999999999998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.36509999999999998</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.32779999999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.4798</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-0.23769999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-0.63690000000000002</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-1.4226000000000001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-0.52939999999999998</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.28120000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.37119999999999997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.4712000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.9049</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-0.2354</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.9605999999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3.5569000000000002</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2.6345999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.361</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.1381</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.1930000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.4638</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.90820000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.0192000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2.0072999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-0.2404</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.57550000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-2.6553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-0.17180000000000001</v>
+      </c>
+      <c r="C3" s="13">
+        <v>-0.2792</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-0.17519999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-0.68840000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-0.42530000000000001</v>
+      </c>
+      <c r="I3" s="14">
+        <v>-0.17030000000000001</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.1646</v>
+      </c>
+      <c r="L3" s="12">
+        <v>-0.32019999999999998</v>
+      </c>
+      <c r="M3" s="12">
+        <v>-0.38879999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>-0.66849999999999998</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-0.40660000000000002</v>
+      </c>
+      <c r="D4" s="12">
+        <v>-0.43219999999999997</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-0.1191</v>
+      </c>
+      <c r="F4" s="13">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-7.5700000000000003E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="J4" s="14">
+        <v>7.8900000000000012E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-0.3216</v>
+      </c>
+      <c r="L4" s="12">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.4778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0679000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1346000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0511999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-6.5772000000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1438999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.6613</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0427999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.1214</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.5613999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.63119999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.9643999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-2.0152000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1.2509999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1.7951999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.6484000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.91759999999999997</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-8.7400000000000005E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.7803</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1.4346000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <v>-0.3155</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.4649000000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>-0.80289999999999995</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.5141</v>
+      </c>
+      <c r="F7" s="13">
+        <v>-0.76539999999999997</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-1.1456</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="I7" s="12">
+        <v>-0.29570000000000002</v>
+      </c>
+      <c r="J7" s="12">
+        <v>-0.22570000000000001</v>
+      </c>
+      <c r="K7" s="12">
+        <v>-0.94040000000000001</v>
+      </c>
+      <c r="L7" s="12">
+        <v>-1.3326</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.16889999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="C8" s="13">
+        <v>-0.3518</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-0.15890000000000001</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.0717000000000001</v>
+      </c>
+      <c r="K8" s="16">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1.1548</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.54459999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-1.9531000000000001</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-0.21510000000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-2.2646000000000002</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.4417</v>
+      </c>
+      <c r="J9" s="12">
+        <v>-1.2318</v>
+      </c>
+      <c r="K9" s="12">
+        <v>-0.14030000000000001</v>
+      </c>
+      <c r="L9" s="12">
+        <v>-1.9814000000000001</v>
+      </c>
+      <c r="M9" s="12">
+        <v>-1.2117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.91690000000000005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-7.1199999999999999E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5911</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.2565999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.31259999999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.5823</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.7766999999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.9466</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.4664999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.87239999999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.70499999999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.5949</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.7487999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1.0257000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.75139999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1.4853000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.8269</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.65359999999999996</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1.6581999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1.6515</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-2.0373000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4923999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.4096000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.8071999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.89270000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-9.98E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.1344000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.3233999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="J13" s="12">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.2329000000000001</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.2175</v>
+      </c>
+      <c r="M13" s="12">
+        <v>-0.2056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-0.54890000000000005</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-0.5302</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-9.9699999999999997E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.0787</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-0.1371</v>
+      </c>
+      <c r="K14" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="M14" s="12">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5524</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.1428</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.3068</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5691999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.1132</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.855</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.3847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.4763</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.45290000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.33360000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.54890000000000005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.2142</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.31009999999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.23119999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.3845000000000001</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.1525</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="I17" s="12">
+        <v>-0.82630000000000003</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-9.06E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="M17" s="12">
+        <v>-4.41E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-0.47960000000000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.84460000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.51019999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.73140000000000005</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-2.4274</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.80579999999999996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.2853</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-0.6946</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.9781</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-2.1126999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.8095</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.62429999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1.1295999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.1113</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1.4079999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.6021000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.40789999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.1846000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-5.8799999999999998E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-0.1933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.452</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0023</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.9944999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.3996</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.9426000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.2391000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.5788000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3664</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.49619999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5353</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.78320000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1631</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.1447</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-0.86850000000000005</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-0.1298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.77339999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1.3857999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.3995</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.61570000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-9.8900000000000002E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1457</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.54210000000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.44230000000000003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-0.41189999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.79379999999999995</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-4.3327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.51839999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3267</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0101</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-6.1600000000000002E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.19980000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.1081000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.6447000000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1.6053999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.67589999999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-8.6099999999999996E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.0684</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.1085</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.3136000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.8683000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2848</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.2425999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.4451000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.2979000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.29759999999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.22559999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4618</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.71560000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5734999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.1125</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.1015999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3432999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.5648</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.7134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.7047000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.4690000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.77259999999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.2786999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.40379999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.2068000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.0188999999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1.5401</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.3397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2.5908000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.0278999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.84640000000000004</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.5908000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.26119999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.6552</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.7780999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.3471000000000002</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.46330000000000005</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.46330000000000005</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.4205000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-8.1100000000000005E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.80289999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0774999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.5089000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.4608000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.7990999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.8004</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.9258999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.1088</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.6201000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1.4354</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.80740000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.1741</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.5323</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.2532000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-8.0500000000000002E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.3044</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.0186999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.56210000000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.88380000000000003</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.9617</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.89629999999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-0.27239999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.2206999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.22620000000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-0.34729999999999994</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.59819999999999995</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.7576000000000001</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.3798999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1.6435999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-0.5111</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1.0851999999999999</v>
+      </c>
+      <c r="M17" s="8">
+        <v>-1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.393</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.0013000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.3292999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.78459999999999996</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1.6443000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.78520000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1.4369000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-0.84489999999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2.7027000000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2.6894999999999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-2.8130000000000002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1.7587999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.313</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-8.8599999999999998E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.4768</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.1176</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-0.27829999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.60829999999999995</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.6331</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.19850000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.39429999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.78180000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0477000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.9388000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.9984999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.948</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.8677999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.2513000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.9187000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.59119999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.3652</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.29039999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3518</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-6.7100000000000007E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5615000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.51549999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.6129</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.72570000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.4587</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.8931</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.5094000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.5787</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.50419999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.659</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.728</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.4889</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-0.29909999999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.95779999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.41689999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6492</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.12590000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-0.3901</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.2321</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-2.52E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.0246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.41020000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.92030000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.81689999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.4461999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.30249999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.37269999999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.2195</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1.1638999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.52849999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.9630999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0226999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1.8079000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.6496</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.8896999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.3274999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-2.4363000000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3018000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-0.26040000000000002</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.3205</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-0.2676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.52449999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.2293</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.6391</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.7377</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.34789999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.389</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1.2764</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.7983</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.47070000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-0.63290000000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.98970000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.83130000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.9278</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.9197</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.6165</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.2182999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.5653999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.7326000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.9587</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.4449000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.3041</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.1783000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.86419999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.49149999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.4098</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-0.43280000000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.0011000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.40350000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5827</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0075000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.1451</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.6532</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.4213</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.34039999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.6714</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.2934999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.7296</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.0004</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.1838</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.4268000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.077</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.5911</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.4731000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.7020999999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.2262999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.01E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.85629999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.1573</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.13389999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.1171</v>
+      </c>
+      <c r="I16" s="8">
+        <v>-0.1361</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.3775</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.20960000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.903</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-0.14449999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5545</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-8.4900000000000003E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.61270000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.2343</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.58879999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.87460000000000004</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-0.88219999999999998</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.6754</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.73409999999999997</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.5958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-0.93340000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.49109999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.0347</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2.8940000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.88290000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.53500000000000003</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-2.5434000000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1.8429</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.9224</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.4647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2392</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.3695</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1.0907</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.19889999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.95930000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.2329</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.49980000000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.29909999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-0.23880000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4916</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.8397</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.88670000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.2386999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.2606000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2067000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.7983</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.70660000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.0147999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0562</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.22589999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.1273</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.31090000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.2827999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.0527</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.15840000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.96020000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1274999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.15479999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1.8301000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.82740000000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-8.3599999999999994E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.80579999999999996</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-0.25569999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.5242</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1.1165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.53159999999999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.22209999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0726</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.99180000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.29570000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.45029999999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.2637</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.80569999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.39379999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.97989999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.56820000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-7.2800000000000004E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-0.186</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.1706</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.89139999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2944</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1.0325</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.34420000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.4498</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.73839999999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.2666</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1.5417000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-3.0545</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.8973</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0058</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-3.1699999999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0181</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.20660000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.3846</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1787</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1767</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.46439999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.2843</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.82340000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.4100999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.64970000000000006</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.1639999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1.6576</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.55900000000000005</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.1428</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1.3928</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.45069999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-2.1107</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.7077</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.5432999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-2.4249999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.3306</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-3.8048000000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1.0266</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.7228000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.4728000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1.3105</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.0254000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.12839999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.26989999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.22539999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-7.1499999999999994E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.3467</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.385</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.1729</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.1439</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.32290000000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.37169999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.80130000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.4516</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.37780000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.32479999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.47610000000000002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-0.2303</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-0.56030000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.2226999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.3791</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.9036999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.28689999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1.2925</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.4593</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.2465</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.4269</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.0743</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.1356</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-0.26529999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.52490000000000003</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1762</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.16950000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.33610000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0117</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.54710000000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.14910000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.57830000000000004</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.52290000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.23080000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.39169999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.0017</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.97560000000000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.53039999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.84150000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3688,155 +6889,1642 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.82979999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.5891000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.2324</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.1996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.84909999999999997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1.5457000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-2.3052999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1.9066000000000001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.7317</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-3.6926999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.27779999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.80400000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.38350000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.64180000000000004</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.80030000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-3.4693000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.458</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2762</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.74109999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1.2214</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-0.53690000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>1.4439</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.4161999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1740999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.7565</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5972</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.4257</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.5716000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.7502</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.3832</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.0406</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.218</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2698</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.7394000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.3308</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.0088999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.7876000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.2792</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-2.4299999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.5776</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.3785</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.43009999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-0.79359999999999997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.30680000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.1973</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.153</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.19359999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.2218</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-0.2001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.6109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.12570000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.5877</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.0084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9889</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6616</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5464</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.3427</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.31390000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.8160000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.1356</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-0.63580000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.21690000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1.1214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4939</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1932999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.6777</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.8124</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.1741000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.2208999999999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.0417000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.4975000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.4667</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.1937</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.86550000000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.67789999999999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.2985</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.1236999999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1.3373999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.1288</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1.1906000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.8648</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.7797000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-3.4506999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.6940999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.3517999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1.5551999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-2.0335000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.4532</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.3299000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.3086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-1.2664</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.61709999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-7.2800000000000004E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.3266</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.08</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.10979999999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.58960000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.14549999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.7077</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.35189999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0745</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.0996999999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.1006</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.2581</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2.9758</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.7281</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.4738</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.3270999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.726</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.6758999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.7890999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.71260000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.4236</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.6495</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.5305</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.7970999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.93069999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4521</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.60529999999999995</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.79879999999999995</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.1749</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.78659999999999997</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.2419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
+      <c r="B17" s="8">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.7379</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1.2347999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.2555</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-5.0620000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.23730000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>-0.93640000000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-2.6760000000000002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.8246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/GRNmap_input_workbooks/16-genes_27-edges_BK-KD-dZAP1-fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/16-genes_27-edges_BK-KD-dZAP1-fam_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="0" windowWidth="17160" windowHeight="13960" tabRatio="788" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="17160" windowHeight="13960" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="7" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="425">
+  <cellStyleXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,6 +567,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,7 +721,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="304" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="425">
+  <cellStyles count="429">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -929,6 +933,8 @@
     <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1140,92 +1146,13 @@
     <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="291"/>
     <cellStyle name="Normal 3" xfId="304"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1563,7 +1490,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1586,7 +1513,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.15759999999999999</v>
+        <v>0.15759999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1594,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.22359999999999999</v>
+        <v>0.22359999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1602,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.20100000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1610,7 +1537,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.18479999999999999</v>
+        <v>0.18479999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1618,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.1026</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1626,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.19259999999999999</v>
+        <v>0.19259999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1634,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.32240000000000002</v>
+        <v>0.32240000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1642,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.27179999999999999</v>
+        <v>0.27179999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1650,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>-9.9000000000000005E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1658,7 +1585,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.21659999999999999</v>
+        <v>0.21659999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1666,7 +1593,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.17119999999999999</v>
+        <v>0.17119999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1674,7 +1601,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.14599999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1682,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.4078</v>
+        <v>0.4078</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1690,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.2772</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1698,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.28299999999999997</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1706,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.1042</v>
+        <v>0.1042</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
@@ -3097,7 +3026,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>-7.8799999999999995E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3105,7 +3034,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.1118</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3113,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.10050000000000001</v>
+        <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3121,7 +3050,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>-9.2399999999999996E-2</v>
+        <v>9.2399999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3129,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>-5.1299999999999998E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3137,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>-9.6299999999999997E-2</v>
+        <v>9.6299999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3145,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.16120000000000001</v>
+        <v>0.16120000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3153,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.13589999999999999</v>
+        <v>0.13589999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3161,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>-4.9500000000000002E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3169,7 +3098,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.10829999999999999</v>
+        <v>0.10829999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3177,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>-8.5599999999999996E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3185,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>-7.2999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3193,7 +3122,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.2039</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3201,7 +3130,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.1386</v>
+        <v>0.1386</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3209,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.14149999999999999</v>
+        <v>0.14149999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3217,7 +3146,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>-5.21E-2</v>
+        <v>5.21E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
